--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_24</t>
+          <t>model_15_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9977974049089589</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9979160378539025</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9986844839135073</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9882368443394869</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F2" t="n">
-        <v>0.998202906583157</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002056025834736516</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001945287188016087</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001459319518187735</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007709727379516765</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001115146128069705</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00513477407298465</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04534342107446809</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005873586909443</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04727378438342963</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P2" t="n">
-        <v>78.37396073186967</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q2" t="n">
-        <v>118.5968629525203</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_23</t>
+          <t>model_15_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.997752545792754</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9978824135652532</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9986560470990044</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9880141227359154</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9981657262851452</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002097899850626134</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001976673985534485</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001490864855310779</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007855702056263536</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001138217530468566</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005187220728592155</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04580283670938006</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005993211219323</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04775275829304129</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P3" t="n">
-        <v>78.33363701157592</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q3" t="n">
-        <v>118.5565392322265</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_22</t>
+          <t>model_15_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9977067906809806</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9978479887997891</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9986270068493777</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E4" t="n">
-        <v>0.987787069709487</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9981277778619653</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002140610239049311</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002008807993022638</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001523079591054662</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0008004515604683439</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001161765575761503</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005240187915954514</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0462667292884348</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N4" t="n">
-        <v>1.006115224850719</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04823639973957642</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P4" t="n">
-        <v>78.29332866432811</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q4" t="n">
-        <v>118.5162308849787</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_21</t>
+          <t>model_15_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9976600822287605</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9978127384345414</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9985973146324968</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9875555658829871</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9980890116289008</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00218421052893272</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002041712661669115</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001556017562758353</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0008156246266177651</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001185821094688059</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005293699681649449</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04673553817955582</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N5" t="n">
-        <v>1.006239780723305</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04872516679576064</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P5" t="n">
-        <v>78.25300165942762</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q5" t="n">
-        <v>118.4759038800782</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_20</t>
+          <t>model_15_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9976124079978442</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9977766408324441</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9985669934640091</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9873194781461149</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.998049441128733</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002228712330836124</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002075408188725408</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001589653238857355</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0008310981282993081</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001210375683578332</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005347756394196946</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04720923988835368</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N6" t="n">
-        <v>1.006366912005749</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04921903496699974</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P6" t="n">
-        <v>78.21266258081083</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.4355648014615</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_19</t>
+          <t>model_15_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9975637604472641</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9977396716251397</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9985359411606077</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9870782720201324</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9980089467989017</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002274122683921973</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002109917320983426</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00162409997265527</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0008469070959544471</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001235503534304858</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005402365102800904</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04768776241261456</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006496638807296</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04971792918579659</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P7" t="n">
-        <v>78.17232186879163</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q7" t="n">
-        <v>118.3952240894423</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_18</t>
+          <t>model_15_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9975141256593033</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9977018221340028</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9985042547201879</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9868326774483072</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9979676538896725</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002320454579767962</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002145248159559009</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00165925016309491</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0008630036881386138</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001261126925616762</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005457520338352035</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04817109693340979</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006628998241858</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05022184025778247</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P8" t="n">
-        <v>78.13198434588482</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q8" t="n">
-        <v>118.3548865665354</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_17</t>
+          <t>model_15_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9974634737171822</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9976630795235327</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9984718672528961</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9865819385166248</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9979254626912174</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002367735944374665</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002181412685828798</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001695178011981695</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0008794374484533879</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001287307730217541</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005513240239373638</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04865938701190824</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006764070087514</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05073091785582241</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P9" t="n">
-        <v>78.09164215630999</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.3145443769606</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_16</t>
+          <t>model_15_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9974117666459537</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.997623415726087</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9984387381356902</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E10" t="n">
-        <v>0.986326077394691</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9978823380635574</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002416002225688442</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002218437099704819</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001731928582997343</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008962069238735649</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001314067753435454</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005569533506206506</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04915284555026741</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00690195561079</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05124538394575951</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P10" t="n">
-        <v>78.05128215536267</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q10" t="n">
-        <v>118.2741843760133</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_15</t>
+          <t>model_15_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9973590116726837</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9975827852092732</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9984049004091607</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9860654904881083</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9978383304744797</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002465246677560313</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002256363903676931</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0017694652237746</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0009132861334530818</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001341375678613841</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005626379776933812</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04965125051356022</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00704263553951</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0517650070401802</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P11" t="n">
-        <v>78.01092680892354</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q11" t="n">
-        <v>118.2338290295742</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_14</t>
+          <t>model_15_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9973051870340437</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9975412098297581</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9983703760224076</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9857993390067575</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9977934152458068</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00251548961510213</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002295172695506052</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00180776358588484</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0009307300526027508</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001369246819243795</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005683802281562051</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05015465696325846</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N12" t="n">
-        <v>1.007186167909217</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05228984454463712</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P12" t="n">
-        <v>77.97057563280944</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.1934778534601</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_13</t>
+          <t>model_15_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.99725023409146</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9974986420047773</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9983350181246011</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9855280179208047</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9977474819741432</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002566785774848721</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00233490789161409</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001846986572909401</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0009485127944568989</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00139774968368315</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005741831058813872</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05066345600971889</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00733270908944</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05282030421986458</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P13" t="n">
-        <v>77.93020166816422</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.1531038888148</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9971941607164817</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9974550680730817</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9982988840549319</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9852512158890387</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9977005654697151</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002619127809054176</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002375582244177444</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001887070577720295</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0009666547647291749</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001426862671224735</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005800455790534381</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05117741502903576</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N14" t="n">
-        <v>1.007482238089382</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05335614353867562</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P14" t="n">
-        <v>77.88982782787862</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q14" t="n">
-        <v>118.1127300485292</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_11</t>
+          <t>model_15_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9971369544926492</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9974104812749632</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9982620100255326</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9849687849347351</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9976526902858295</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002672527307938883</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002417202063086757</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001927975429716528</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000985165662009293</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00145657054586291</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005859648428993705</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05169649222083528</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N15" t="n">
-        <v>1.007634788019602</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05389731892116796</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P15" t="n">
-        <v>77.8494613939847</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.0723636146353</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_10</t>
+          <t>model_15_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9970785747944102</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9973648470536963</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9982243159861689</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9846808470389598</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9976037913117752</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002727022193672384</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002459799605528653</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001969789929689303</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001004037491497285</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001486913710593294</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005919449063122759</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05222089805501609</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007790467214906</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05444404979737958</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P16" t="n">
-        <v>77.80909007331616</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.0319922939668</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_9</t>
+          <t>model_15_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9970190014746768</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9973181467514775</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9981858261816</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9843872798536537</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9975538837573353</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002782631272676929</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002503392287743596</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002012487182604219</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00102327827204633</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001517882727325274</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005979842120216591</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05275065186968716</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N17" t="n">
-        <v>1.007949329400862</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05499635632868276</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P17" t="n">
-        <v>77.76871659593252</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q17" t="n">
-        <v>117.9916188165831</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_8</t>
+          <t>model_15_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.996958169310973</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9972703174408375</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9981463833130958</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9840874197972951</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9975027919771615</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002839415427271012</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002548038849761888</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002056241682037975</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001042931495664652</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001549586588851313</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006040902187921071</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05328616543973691</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N18" t="n">
-        <v>1.008111548504072</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05555466782007545</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P18" t="n">
-        <v>77.728314166928</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.9512163875786</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_7</t>
+          <t>model_15_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9968961287366562</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9972213798711753</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9981061262734576</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9837816921393961</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9974506625790353</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002897327580129285</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002593719922930455</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00210089935235578</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001062969289627463</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001581934320991622</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00610254076438323</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05382682955673021</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N19" t="n">
-        <v>1.008276990035583</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05611834912785817</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P19" t="n">
-        <v>77.68793298189485</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q19" t="n">
-        <v>117.9108352025455</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_6</t>
+          <t>model_15_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9968328269044294</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9971713281964253</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9980650504114941</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9834694169592627</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9973974554982397</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002956417061883738</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002640440964295082</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002146465353186406</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001083436216833913</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001614950785010159</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006164801802820303</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05437294420834445</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N20" t="n">
-        <v>1.008445794921522</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0566877130108048</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P20" t="n">
-        <v>77.64755439180259</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q20" t="n">
-        <v>117.8704566124532</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_5</t>
+          <t>model_15_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9967682089885412</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9971201038432993</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D21" t="n">
-        <v>0.998023068747637</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9831513335083422</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9973431320289413</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003016735049966625</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002688256649448882</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002193036172123237</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001104283825769036</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001648659998946137</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.006227699818913357</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05492481269851199</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00861810936389</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05726307568512404</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P21" t="n">
-        <v>77.60716028339623</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.8300625040469</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_4</t>
+          <t>model_15_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9967022633859436</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9970676514779768</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9979801234503781</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9828265483898474</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9972875932974886</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003078292375314209</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002737218630084704</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002240675962429006</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001125570670836675</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001683123316632841</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006291261730217483</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05548236093853802</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00879396430415</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05784435990801193</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P22" t="n">
-        <v>77.56676051869107</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q22" t="n">
-        <v>117.7896627393417</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_3</t>
+          <t>model_15_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9966349937429057</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9970140115361077</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9979363029782945</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9824955628448918</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9972309448433245</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003141085634294037</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002787289161298256</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002289286595825629</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001147263900033106</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001718275247929368</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006355432023137109</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05604538905471206</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N23" t="n">
-        <v>1.008973350018918</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05843135729672037</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P23" t="n">
-        <v>77.52637359082343</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q23" t="n">
-        <v>117.749275811474</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_2</t>
+          <t>model_15_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9965663038355992</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9969591049837361</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9978914302579378</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E24" t="n">
-        <v>0.982157597472516</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9971729872289961</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003205204647626113</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002838542017818033</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002339064502248064</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001169414596325274</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001754239549286669</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006420292528288826</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05661452682506596</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N24" t="n">
-        <v>1.009156523105069</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05902472444023585</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P24" t="n">
-        <v>77.48595867606909</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.7088608967197</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_1</t>
+          <t>model_15_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9964962237064044</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9969029428894833</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.997845653598169</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E25" t="n">
-        <v>0.981812890294964</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9971138655900915</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003270621372067334</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00289096686757197</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002389845160701347</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001192007159421327</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001790926160061337</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006485796779877047</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05718934666585495</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N25" t="n">
-        <v>1.009343403449588</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05962401555168833</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P25" t="n">
-        <v>77.44555058017187</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q25" t="n">
-        <v>117.6684528008225</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_0</t>
+          <t>model_15_7_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9964247271186281</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.996845483488818</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9977988741521403</v>
+        <v>0.9999999999955305</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9814615147675364</v>
+        <v>0.9997148590393944</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9970534954519142</v>
+        <v>0.9999258078468433</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003337360298419091</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002944602695916892</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002441738223310518</v>
+        <v>3.766053896806509e-12</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001215036774963979</v>
+        <v>0.000102776188009608</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001828387499137248</v>
+        <v>5.138809588783094e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006551951450459049</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05776989093307248</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N26" t="n">
-        <v>1.009534061016992</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O26" t="n">
-        <v>0.06022927479025363</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P26" t="n">
-        <v>77.40515022856685</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q26" t="n">
-        <v>117.6280524492175</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
   </sheetData>
